--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H2">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I2">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J2">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.655164</v>
+        <v>9.467112666666667</v>
       </c>
       <c r="N2">
-        <v>58.965492</v>
+        <v>28.401338</v>
       </c>
       <c r="O2">
-        <v>0.2909311988313945</v>
+        <v>0.2314516669582087</v>
       </c>
       <c r="P2">
-        <v>0.2909311988313944</v>
+        <v>0.2314516669582087</v>
       </c>
       <c r="Q2">
-        <v>2032.885228057954</v>
+        <v>1117.447790853383</v>
       </c>
       <c r="R2">
-        <v>18295.96705252158</v>
+        <v>10057.03011768045</v>
       </c>
       <c r="S2">
-        <v>0.07231183055838583</v>
+        <v>0.06170633667553162</v>
       </c>
       <c r="T2">
-        <v>0.0723118305583858</v>
+        <v>0.06170633667553162</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H3">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I3">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J3">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.288089</v>
       </c>
       <c r="O3">
-        <v>0.02115710106286768</v>
+        <v>0.03494502079849753</v>
       </c>
       <c r="P3">
-        <v>0.02115710106286767</v>
+        <v>0.03494502079849753</v>
       </c>
       <c r="Q3">
-        <v>147.8354964747484</v>
+        <v>168.7144309902827</v>
       </c>
       <c r="R3">
-        <v>1330.519468272735</v>
+        <v>1518.429878912544</v>
       </c>
       <c r="S3">
-        <v>0.005258661543725916</v>
+        <v>0.009316542182929681</v>
       </c>
       <c r="T3">
-        <v>0.005258661543725915</v>
+        <v>0.009316542182929681</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H4">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I4">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J4">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.92250533333333</v>
+        <v>10.196198</v>
       </c>
       <c r="N4">
-        <v>71.767516</v>
+        <v>30.588594</v>
       </c>
       <c r="O4">
-        <v>0.3540953998489707</v>
+        <v>0.2492763218130026</v>
       </c>
       <c r="P4">
-        <v>0.3540953998489706</v>
+        <v>0.2492763218130026</v>
       </c>
       <c r="Q4">
-        <v>2474.245837392705</v>
+        <v>1203.505158475669</v>
       </c>
       <c r="R4">
-        <v>22268.21253653434</v>
+        <v>10831.54642628102</v>
       </c>
       <c r="S4">
-        <v>0.08801148401489203</v>
+        <v>0.06645849149061732</v>
       </c>
       <c r="T4">
-        <v>0.08801148401489201</v>
+        <v>0.06645849149061732</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="H5">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="I5">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="J5">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.55245966666666</v>
+        <v>19.81052133333333</v>
       </c>
       <c r="N5">
-        <v>67.65737899999999</v>
+        <v>59.431564</v>
       </c>
       <c r="O5">
-        <v>0.3338163002567673</v>
+        <v>0.4843269904302911</v>
       </c>
       <c r="P5">
-        <v>0.3338163002567672</v>
+        <v>0.4843269904302911</v>
       </c>
       <c r="Q5">
-        <v>2332.54538668512</v>
+        <v>2338.328916009571</v>
       </c>
       <c r="R5">
-        <v>20992.90848016608</v>
+        <v>21044.96024408614</v>
       </c>
       <c r="S5">
-        <v>0.08297105239573836</v>
+        <v>0.1291243425692622</v>
       </c>
       <c r="T5">
-        <v>0.08297105239573833</v>
+        <v>0.1291243425692622</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>648.391617</v>
       </c>
       <c r="I6">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J6">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.655164</v>
+        <v>9.467112666666667</v>
       </c>
       <c r="N6">
-        <v>58.965492</v>
+        <v>28.401338</v>
       </c>
       <c r="O6">
-        <v>0.2909311988313945</v>
+        <v>0.2314516669582087</v>
       </c>
       <c r="P6">
-        <v>0.2909311988313944</v>
+        <v>0.2314516669582087</v>
       </c>
       <c r="Q6">
-        <v>4248.081189453395</v>
+        <v>2046.132163420394</v>
       </c>
       <c r="R6">
-        <v>38232.73070508056</v>
+        <v>18415.18947078355</v>
       </c>
       <c r="S6">
-        <v>0.1511086424999409</v>
+        <v>0.1129890104863242</v>
       </c>
       <c r="T6">
-        <v>0.1511086424999408</v>
+        <v>0.1129890104863242</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>648.391617</v>
       </c>
       <c r="I7">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J7">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>4.288089</v>
       </c>
       <c r="O7">
-        <v>0.02115710106286768</v>
+        <v>0.03494502079849753</v>
       </c>
       <c r="P7">
-        <v>0.02115710106286767</v>
+        <v>0.03494502079849753</v>
       </c>
       <c r="Q7">
         <v>308.928995616657</v>
@@ -883,10 +883,10 @@
         <v>2780.360960549913</v>
       </c>
       <c r="S7">
-        <v>0.01098892395757385</v>
+        <v>0.01705929956494625</v>
       </c>
       <c r="T7">
-        <v>0.01098892395757384</v>
+        <v>0.01705929956494625</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>648.391617</v>
       </c>
       <c r="I8">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J8">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.92250533333333</v>
+        <v>10.196198</v>
       </c>
       <c r="N8">
-        <v>71.767516</v>
+        <v>30.588594</v>
       </c>
       <c r="O8">
-        <v>0.3540953998489707</v>
+        <v>0.2492763218130026</v>
       </c>
       <c r="P8">
-        <v>0.3540953998489706</v>
+        <v>0.2492763218130026</v>
       </c>
       <c r="Q8">
-        <v>5170.383971923708</v>
+        <v>2203.709769490722</v>
       </c>
       <c r="R8">
-        <v>46533.45574731338</v>
+        <v>19833.3879254165</v>
       </c>
       <c r="S8">
-        <v>0.1839159065840202</v>
+        <v>0.1216905685298317</v>
       </c>
       <c r="T8">
-        <v>0.1839159065840201</v>
+        <v>0.1216905685298317</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>648.391617</v>
       </c>
       <c r="I9">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="J9">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.55245966666666</v>
+        <v>19.81052133333333</v>
       </c>
       <c r="N9">
-        <v>67.65737899999999</v>
+        <v>59.431564</v>
       </c>
       <c r="O9">
-        <v>0.3338163002567673</v>
+        <v>0.4843269904302911</v>
       </c>
       <c r="P9">
-        <v>0.3338163002567672</v>
+        <v>0.4843269904302911</v>
       </c>
       <c r="Q9">
-        <v>4874.275263532426</v>
+        <v>4281.658653644332</v>
       </c>
       <c r="R9">
-        <v>43868.47737179184</v>
+        <v>38534.92788279899</v>
       </c>
       <c r="S9">
-        <v>0.1733830135054925</v>
+        <v>0.2364365230967164</v>
       </c>
       <c r="T9">
-        <v>0.1733830135054924</v>
+        <v>0.2364365230967164</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H10">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I10">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J10">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.655164</v>
+        <v>9.467112666666667</v>
       </c>
       <c r="N10">
-        <v>58.965492</v>
+        <v>28.401338</v>
       </c>
       <c r="O10">
-        <v>0.2909311988313945</v>
+        <v>0.2314516669582087</v>
       </c>
       <c r="P10">
-        <v>0.2909311988313944</v>
+        <v>0.2314516669582087</v>
       </c>
       <c r="Q10">
-        <v>490.4591990144719</v>
+        <v>434.3175398309253</v>
       </c>
       <c r="R10">
-        <v>4414.132791130247</v>
+        <v>3908.857858478329</v>
       </c>
       <c r="S10">
-        <v>0.01744614108333964</v>
+        <v>0.0239833525613118</v>
       </c>
       <c r="T10">
-        <v>0.01744614108333963</v>
+        <v>0.0239833525613118</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H11">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I11">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J11">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.288089</v>
       </c>
       <c r="O11">
-        <v>0.02115710106286768</v>
+        <v>0.03494502079849753</v>
       </c>
       <c r="P11">
-        <v>0.02115710106286767</v>
+        <v>0.03494502079849753</v>
       </c>
       <c r="Q11">
-        <v>35.667177952874</v>
+        <v>65.57410306007601</v>
       </c>
       <c r="R11">
-        <v>321.004601575866</v>
+        <v>590.166927540684</v>
       </c>
       <c r="S11">
-        <v>0.001268718417068695</v>
+        <v>0.003621053004660659</v>
       </c>
       <c r="T11">
-        <v>0.001268718417068694</v>
+        <v>0.003621053004660659</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H12">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I12">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J12">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.92250533333333</v>
+        <v>10.196198</v>
       </c>
       <c r="N12">
-        <v>71.767516</v>
+        <v>30.588594</v>
       </c>
       <c r="O12">
-        <v>0.3540953998489707</v>
+        <v>0.2492763218130026</v>
       </c>
       <c r="P12">
-        <v>0.3540953998489706</v>
+        <v>0.2492763218130026</v>
       </c>
       <c r="Q12">
-        <v>596.9430122387226</v>
+        <v>467.765388129496</v>
       </c>
       <c r="R12">
-        <v>5372.487110148503</v>
+        <v>4209.888493165464</v>
       </c>
       <c r="S12">
-        <v>0.0212338804760051</v>
+        <v>0.02583036877547201</v>
       </c>
       <c r="T12">
-        <v>0.02123388047600509</v>
+        <v>0.02583036877547201</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="H13">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="I13">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="J13">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.55245966666666</v>
+        <v>19.81052133333333</v>
       </c>
       <c r="N13">
-        <v>67.65737899999999</v>
+        <v>59.431564</v>
       </c>
       <c r="O13">
-        <v>0.3338163002567673</v>
+        <v>0.4843269904302911</v>
       </c>
       <c r="P13">
-        <v>0.3338163002567672</v>
+        <v>0.4843269904302911</v>
       </c>
       <c r="Q13">
-        <v>562.7559914493472</v>
+        <v>908.8364310436427</v>
       </c>
       <c r="R13">
-        <v>5064.803923044125</v>
+        <v>8179.527879392785</v>
       </c>
       <c r="S13">
-        <v>0.02001781278044759</v>
+        <v>0.05018665503301872</v>
       </c>
       <c r="T13">
-        <v>0.02001781278044758</v>
+        <v>0.05018665503301873</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H14">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I14">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J14">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.655164</v>
+        <v>9.467112666666667</v>
       </c>
       <c r="N14">
-        <v>58.965492</v>
+        <v>28.401338</v>
       </c>
       <c r="O14">
-        <v>0.2909311988313945</v>
+        <v>0.2314516669582087</v>
       </c>
       <c r="P14">
-        <v>0.2909311988313944</v>
+        <v>0.2314516669582087</v>
       </c>
       <c r="Q14">
-        <v>1407.4537164763</v>
+        <v>593.4897744631255</v>
       </c>
       <c r="R14">
-        <v>12667.0834482867</v>
+        <v>5341.40797016813</v>
       </c>
       <c r="S14">
-        <v>0.05006458468972809</v>
+        <v>0.03277296723504107</v>
       </c>
       <c r="T14">
-        <v>0.05006458468972808</v>
+        <v>0.03277296723504108</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H15">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I15">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J15">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>4.288089</v>
       </c>
       <c r="O15">
-        <v>0.02115710106286768</v>
+        <v>0.03494502079849753</v>
       </c>
       <c r="P15">
-        <v>0.02115710106286767</v>
+        <v>0.03494502079849753</v>
       </c>
       <c r="Q15">
-        <v>102.352860883975</v>
+        <v>89.60623522341834</v>
       </c>
       <c r="R15">
-        <v>921.1757479557751</v>
+        <v>806.4561170107651</v>
       </c>
       <c r="S15">
-        <v>0.003640797144499218</v>
+        <v>0.004948126045960934</v>
       </c>
       <c r="T15">
-        <v>0.003640797144499217</v>
+        <v>0.004948126045960935</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H16">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I16">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J16">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.92250533333333</v>
+        <v>10.196198</v>
       </c>
       <c r="N16">
-        <v>71.767516</v>
+        <v>30.588594</v>
       </c>
       <c r="O16">
-        <v>0.3540953998489707</v>
+        <v>0.2492763218130026</v>
       </c>
       <c r="P16">
-        <v>0.3540953998489706</v>
+        <v>0.2492763218130026</v>
       </c>
       <c r="Q16">
-        <v>1713.026614218233</v>
+        <v>639.1958630330766</v>
       </c>
       <c r="R16">
-        <v>15417.2395279641</v>
+        <v>5752.76276729769</v>
       </c>
       <c r="S16">
-        <v>0.0609341287740534</v>
+        <v>0.03529689301708158</v>
       </c>
       <c r="T16">
-        <v>0.06093412877405339</v>
+        <v>0.03529689301708159</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="H17">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="I17">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="J17">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.55245966666666</v>
+        <v>19.81052133333333</v>
       </c>
       <c r="N17">
-        <v>67.65737899999999</v>
+        <v>59.431564</v>
       </c>
       <c r="O17">
-        <v>0.3338163002567673</v>
+        <v>0.4843269904302911</v>
       </c>
       <c r="P17">
-        <v>0.3338163002567672</v>
+        <v>0.4843269904302911</v>
       </c>
       <c r="Q17">
-        <v>1614.921308900392</v>
+        <v>1241.914219476238</v>
       </c>
       <c r="R17">
-        <v>14534.29178010352</v>
+        <v>11177.22797528614</v>
       </c>
       <c r="S17">
-        <v>0.05744442157508887</v>
+        <v>0.06857946973129386</v>
       </c>
       <c r="T17">
-        <v>0.05744442157508886</v>
+        <v>0.06857946973129388</v>
       </c>
     </row>
   </sheetData>
